--- a/excel-sheet-sample/comprehnsiveExams.xlsx
+++ b/excel-sheet-sample/comprehnsiveExams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -31,13 +31,7 @@
     <t>بوكليت50</t>
   </si>
   <si>
-    <t>'23424234234</t>
-  </si>
-  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>'01223467546'</t>
   </si>
 </sst>
 </file>
@@ -93,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -101,9 +95,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -116,10 +107,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -445,17 +436,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -469,41 +460,41 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>23424234234</v>
+      </c>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>1223467546</v>
+      </c>
+      <c r="C3" s="3">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel-sheet-sample/comprehnsiveExams.xlsx
+++ b/excel-sheet-sample/comprehnsiveExams.xlsx
@@ -107,10 +107,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -438,15 +438,15 @@
   <cols>
     <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>23424234234</v>
+        <v>45756855454</v>
       </c>
       <c r="C2" s="3">
         <v>60</v>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>1223467546</v>
+        <v>11236547895</v>
       </c>
       <c r="C3" s="3">
         <v>55</v>
